--- a/analysis/results/Q3/beta_diversity/supplements_beta_diversity_colon.xlsx
+++ b/analysis/results/Q3/beta_diversity/supplements_beta_diversity_colon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">pairs</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">no_ibd vs ibd : Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
 </sst>
 </file>
@@ -425,19 +428,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.258071194442817</v>
+        <v>0.198331865618144</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08888501498891</v>
+        <v>0.893074086119253</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0102614923913168</v>
+        <v>0.00419718815164981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.327</v>
+        <v>0.581</v>
       </c>
       <c r="G2" t="n">
-        <v>0.327</v>
+        <v>0.581</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -451,13 +454,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.24474542070959</v>
+        <v>1.5230501434468</v>
       </c>
       <c r="D3" t="n">
-        <v>5.25197955166229</v>
+        <v>6.85818494538538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.049493883621204</v>
+        <v>0.0322314722171335</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -477,19 +480,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11052369523939</v>
+        <v>0.261681170378883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.463834538234393</v>
+        <v>1.17936240397016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0043946712464669</v>
+        <v>0.00553781463407776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.97</v>
+        <v>0.264</v>
       </c>
       <c r="G4" t="n">
-        <v>0.97</v>
+        <v>0.264</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -543,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.529843766378121</v>
+        <v>0.436024969493701</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28772140160017</v>
+        <v>1.09888154932219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00381390509698439</v>
+        <v>0.00181460157265083</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -569,22 +572,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.983594747060323</v>
+        <v>3.37068552425404</v>
       </c>
       <c r="D3" t="n">
-        <v>2.39050846053963</v>
+        <v>8.49488994969968</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00708008144518455</v>
+        <v>0.014027754558013</v>
       </c>
       <c r="F3" t="n">
-        <v>0.258</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.258</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -595,19 +598,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.345474107503278</v>
+        <v>0.570184581748871</v>
       </c>
       <c r="D4" t="n">
-        <v>0.839229013794165</v>
+        <v>1.43805028554891</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00248678109113127</v>
+        <v>0.0023729325408684</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -661,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.332820105962412</v>
+        <v>0.266519707145889</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0475280258075</v>
+        <v>0.870141890819504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.010013426847118</v>
+        <v>0.00412349168841252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.35</v>
+        <v>0.704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.35</v>
+        <v>0.704</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -687,13 +690,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.17913995615982</v>
+        <v>1.56912551570584</v>
       </c>
       <c r="D3" t="n">
-        <v>3.71126061286196</v>
+        <v>5.12293014948431</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0354763173317833</v>
+        <v>0.0242769140465372</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -713,19 +716,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203071819681333</v>
+        <v>0.343614137232004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.636833164975592</v>
+        <v>1.12251264007613</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00610974149296081</v>
+        <v>0.00531626743129213</v>
       </c>
       <c r="F4" t="n">
-        <v>0.977</v>
+        <v>0.26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.977</v>
+        <v>0.26</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -779,19 +782,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>308.114259635007</v>
+        <v>252.553562162968</v>
       </c>
       <c r="D2" t="n">
-        <v>1.06878122618979</v>
+        <v>1.03812561350281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0103399830287047</v>
+        <v>0.00497833189974476</v>
       </c>
       <c r="F2" t="n">
-        <v>0.255</v>
+        <v>0.327</v>
       </c>
       <c r="G2" t="n">
-        <v>0.255</v>
+        <v>0.327</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -805,13 +808,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>680.354999724455</v>
+        <v>600.047043655526</v>
       </c>
       <c r="D3" t="n">
-        <v>2.36000323941917</v>
+        <v>2.46650334285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0228319817426782</v>
+        <v>0.0118281180166061</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -831,22 +834,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>262.960192057995</v>
+        <v>331.977529539809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.911342918191425</v>
+        <v>1.36704239859078</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00882466110567407</v>
+        <v>0.00654393591265222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.738</v>
+        <v>0.019</v>
       </c>
       <c r="G4" t="n">
-        <v>0.738</v>
+        <v>0.019</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -897,19 +900,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426298384052608</v>
+        <v>0.320710964868141</v>
       </c>
       <c r="D2" t="n">
-        <v>1.19778433569837</v>
+        <v>0.951624710279136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0114907600081381</v>
+        <v>0.00451745855796843</v>
       </c>
       <c r="F2" t="n">
-        <v>0.149</v>
+        <v>0.573</v>
       </c>
       <c r="G2" t="n">
-        <v>0.149</v>
+        <v>0.573</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -923,13 +926,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.12303581646705</v>
+        <v>1.54523195538049</v>
       </c>
       <c r="D3" t="n">
-        <v>3.15542999859569</v>
+        <v>4.58506590960368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0302711329207708</v>
+        <v>0.0217657706955853</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -949,19 +952,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.287991372052593</v>
+        <v>0.489415780504941</v>
       </c>
       <c r="D4" t="n">
-        <v>0.807621975959464</v>
+        <v>1.45543779927179</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00776273113965725</v>
+        <v>0.00689379456345016</v>
       </c>
       <c r="F4" t="n">
-        <v>0.808</v>
+        <v>0.053</v>
       </c>
       <c r="G4" t="n">
-        <v>0.808</v>
+        <v>0.053</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1015,19 +1018,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.460056055287907</v>
+        <v>0.381292850139147</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11182615686457</v>
+        <v>0.950352601920806</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0107610053110205</v>
+        <v>0.00454266936896485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.161</v>
+        <v>0.637</v>
       </c>
       <c r="G2" t="n">
-        <v>0.161</v>
+        <v>0.637</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1041,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.941910352649984</v>
+        <v>1.27798803141499</v>
       </c>
       <c r="D3" t="n">
-        <v>2.27633253700446</v>
+        <v>3.18531871351813</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0220318854428044</v>
+        <v>0.0152257695944048</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -1067,19 +1070,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.365032761986855</v>
+        <v>0.514301524271937</v>
       </c>
       <c r="D4" t="n">
-        <v>0.881132946210717</v>
+        <v>1.28364343485513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00853834971909838</v>
+        <v>0.00612731599837098</v>
       </c>
       <c r="F4" t="n">
-        <v>0.819</v>
+        <v>0.051</v>
       </c>
       <c r="G4" t="n">
-        <v>0.819</v>
+        <v>0.051</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1133,19 +1136,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25995187014334</v>
+        <v>0.152808040391392</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08844190377749</v>
+        <v>0.708824564264712</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00321473310721431</v>
+        <v>0.00113453580935446</v>
       </c>
       <c r="F2" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1159,22 +1162,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.839428695785671</v>
+        <v>5.84721362564068</v>
       </c>
       <c r="D3" t="n">
-        <v>3.51476358766955</v>
+        <v>27.1232367075818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0103809186600578</v>
+        <v>0.0434131163925873</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.095</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1185,19 +1188,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.163886425964249</v>
+        <v>0.166840626557343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.685561214359094</v>
+        <v>0.773623500548315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00202672563609482</v>
+        <v>0.00123872189447371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="G4" t="n">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1251,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.354151473688773</v>
+        <v>0.248898805596838</v>
       </c>
       <c r="D2" t="n">
-        <v>1.10749480354269</v>
+        <v>0.827200832387719</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00327770933151092</v>
+        <v>0.00134124015169824</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -1277,22 +1280,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.899936091941782</v>
+        <v>5.70592725464408</v>
       </c>
       <c r="D3" t="n">
-        <v>2.81426061838702</v>
+        <v>18.9633203070916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00832900367630055</v>
+        <v>0.0307475108940225</v>
       </c>
       <c r="F3" t="n">
-        <v>0.138</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.138</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1303,13 +1306,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251877212511588</v>
+        <v>0.286464832522797</v>
       </c>
       <c r="D4" t="n">
-        <v>0.787163024487562</v>
+        <v>0.951972767235338</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00233115023141117</v>
+        <v>0.00154367207390877</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -1369,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>277.693918676479</v>
+        <v>249.724804401034</v>
       </c>
       <c r="D2" t="n">
-        <v>1.23013318021345</v>
+        <v>1.15865739011859</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00364454097014202</v>
+        <v>0.00192055744284371</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -1395,22 +1398,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>521.554863544909</v>
+        <v>1322.31421223861</v>
       </c>
       <c r="D3" t="n">
-        <v>2.31039248538874</v>
+        <v>6.13519004547374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00684504751643756</v>
+        <v>0.0101695160325946</v>
       </c>
       <c r="F3" t="n">
-        <v>0.173</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.173</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1421,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>184.56267278869</v>
+        <v>292.434724714975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.817131190855537</v>
+        <v>1.35763435376341</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00242225766319696</v>
+        <v>0.00224902643709898</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -1487,19 +1490,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.481013181380476</v>
+        <v>0.359832533509234</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35953154729688</v>
+        <v>1.0858638267299</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00402129274491403</v>
+        <v>0.00178033480498561</v>
       </c>
       <c r="F2" t="n">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1513,22 +1516,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.988675967625312</v>
+        <v>4.25907319484759</v>
       </c>
       <c r="D3" t="n">
-        <v>2.79438531015574</v>
+        <v>12.8525719244373</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0082653774357542</v>
+        <v>0.0210725144050206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.152</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.152</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1539,19 +1542,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.26511680860116</v>
+        <v>0.572897890238303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.748760230771133</v>
+        <v>1.73094977115039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00221638894785156</v>
+        <v>0.00283451316574159</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.648</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.648</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
